--- a/old_database/crypto/rnaSample/rnaSample_3275.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_3275.xlsx
@@ -52,7 +52,7 @@
     <t>10.30.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3275</t>
   </si>
 </sst>
 </file>
